--- a/PPG/Notas.xlsx
+++ b/PPG/Notas.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/PPGCR Unisuam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622A91A3-DD83-654A-96EE-8E7377FCE7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26437911-F2DE-2445-BF77-322941122B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" xr2:uid="{18A21DAB-BF63-D748-A391-BF8484832018}"/>
   </bookViews>
   <sheets>
-    <sheet name="Períodos" sheetId="1" r:id="rId1"/>
+    <sheet name="Notas" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,41 +34,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Nome</t>
+    <t>https://sucupira.capes.gov.br/sucupira/public/consultas/avaliacao/viewPreenchimentoFicha.xhtml?idFicha=6566&amp;popup=true" style="width:100%; height:600px; border:0;</t>
   </si>
   <si>
-    <t>Triênio</t>
-  </si>
-  <si>
-    <t>Quadrienio</t>
-  </si>
-  <si>
-    <t>Quadriênio</t>
-  </si>
-  <si>
-    <t>Período</t>
-  </si>
-  <si>
-    <t>2010-2012</t>
-  </si>
-  <si>
-    <t>2013-2016</t>
-  </si>
-  <si>
-    <t>2017-2020</t>
-  </si>
-  <si>
-    <t>Nota</t>
+    <t>Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,13 +88,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,58 +410,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD62B30-0551-D944-9B54-2470EA6E8226}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCF4055-4932-C24A-8961-4F2BACEE7A2C}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C1A462A2-2419-2D4C-85D7-33705AFB849B}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/PPG/Notas.xlsx
+++ b/PPG/Notas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26437911-F2DE-2445-BF77-322941122B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E60069-615C-FB4A-83AA-6862DA9B635F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" xr2:uid="{18A21DAB-BF63-D748-A391-BF8484832018}"/>
   </bookViews>
@@ -36,10 +36,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>https://sucupira.capes.gov.br/sucupira/public/consultas/avaliacao/viewPreenchimentoFicha.xhtml?idFicha=6566&amp;popup=true" style="width:100%; height:600px; border:0;</t>
+    <t>Link</t>
   </si>
   <si>
-    <t>Link</t>
+    <t>https://sucupira.capes.gov.br/sucupira/public/consultas/avaliacao/viewPreenchimentoFicha.xhtml?idFicha=6566&amp;popup=true</t>
   </si>
 </sst>
 </file>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -403,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -419,12 +419,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
